--- a/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
+++ b/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
@@ -4777,6 +4777,809 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Ensemble Testing, With</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>σ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Outlier Detection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dow Jones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$A$256:$A$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.91423574600000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90082181500000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88898699400000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90907392899999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88326484900000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.878408666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94187862899999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93214928500000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90046524299999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90875131600000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87526742999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84062892700000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80069277000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.840645906</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89691649399999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88774747899999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86098753699999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90881923499999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91413386799999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.838183856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84893197899999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85468808399999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86777939999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.90944748200000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94223520199999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99984718299999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97763778999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97743403399999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-838A-461B-899C-122E2F028472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$256:$I$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.869862799967691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85729113304925297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.866802693663693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86943930765065802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87370991299154299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86592683557733297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87228851148602604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87784704689562498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88503813339506399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88701695472032205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89600847837170705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90190043633654904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90545303590699999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91071186633439505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91528308820997395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92081901039744296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92251896939534805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.926898006984614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92592721024569802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92507646657736997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92547280620035899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92497626277610401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92460320169876098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92376712900248104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91676951279705698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91895534946892199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91440063750985101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91155584465284201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90940828658132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-838A-461B-899C-122E2F028472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$J$256:$J$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.70185347427020195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70013219378031999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69854598390372402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69717660763421796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69609564714510397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65759080896122302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65883878516530103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66001884377348796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66117453894960398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66236720664197601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66361989679452504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66489701144555102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66613687540456101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66730848742197102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.668440165045882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66959271127415598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67080339682841505</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67205257803610297</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67328183871999703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67444756384541804</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67556131169103695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67667862026792003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67784746384574401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.669355563315291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59119326705222797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59075679560652095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59110999947657705</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59145717753190696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59179856308230205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-838A-461B-899C-122E2F028472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$K$256:$K$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.0863638092230099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99332662805874505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0072897119139601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.019403556269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0324553035469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.04741979118873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06109530502222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0741978177440299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0894195096604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1045074627199301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1183532590042899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1337164054023099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.14989028930584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.16480880708809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.18053160701973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.19752878709193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.21355321758604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2299042672946501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2476280389905801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2646914050065801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.28187665184058</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3003473730525501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3183867153504201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3365399619754901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3558190553404601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.37480882294111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.39402005942143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.41416546967239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4341245234517701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-838A-461B-899C-122E2F028472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="417721816"/>
+        <c:axId val="417718864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="417721816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417718864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417718864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417721816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4858,6 +5661,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6445,6 +7288,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6509,16 +7868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>82261</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25110</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>463261</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6534,6 +7893,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6841,8 +8230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="M256" sqref="M256"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" activeCellId="3" sqref="A256:A284 I256:K284 A1 I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10509,8 +11898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
+++ b/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
@@ -54,7 +54,7 @@
     <t>Ind 5 is an outlier for Mins</t>
   </si>
   <si>
-    <t>Orange represents outlier detection and removal using 2Sigma rule</t>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,13 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3967,18 +3974,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Ensemble Testing, With 2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR">
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>σ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t> Outlier Detection</a:t>
+              <a:t>Ensemble Testing Period</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4563,6 +4559,147 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B3F2-4BD1-BC24-13F879982B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$L$256:$L$284</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.88611161231531599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89477977981664203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90117200457051305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90742915860782003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90725356643763999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89420235213541699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88707736815751204</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.895242397010933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90382614516525195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90211412314669004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89805519573266201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90655795202857403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88642227520206096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86027932514399796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84838296580648298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84602935738705898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84851128304688095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85256002969501399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87406329847138398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88867795732214405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87699771140955196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86927841596056898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86802563449764802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85986398228287497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85893199382151297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87962483770188105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90959252552441505</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93388404780950995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95469805688758302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B372-4C9A-BFE1-7DF0BB251FE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7868,14 +8005,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>463261</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72736</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>129885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -8231,7 +8368,7 @@
   <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="3" sqref="A256:A284 I256:K284 A1 I1:K1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8240,6 +8377,7 @@
     <col min="2" max="5" width="9.140625" style="2"/>
     <col min="6" max="8" width="9.140625" style="4"/>
     <col min="9" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8276,7 +8414,7 @@
       <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10879,7 +11017,7 @@
         <v>0.74023711643187495</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0.86628519000000004</v>
       </c>
@@ -10890,7 +11028,7 @@
         <v>0.74080996284379697</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0.90009169</v>
       </c>
@@ -10901,7 +11039,7 @@
         <v>0.74137996326977895</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0.94216728400000005</v>
       </c>
@@ -10912,7 +11050,7 @@
         <v>0.74194714404865603</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0.93812612500000003</v>
       </c>
@@ -10923,7 +11061,7 @@
         <v>0.74251153115658497</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0.9214521</v>
       </c>
@@ -10934,7 +11072,7 @@
         <v>0.74307315021382103</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0.93242095999999997</v>
       </c>
@@ -10945,7 +11083,7 @@
         <v>0.74363202649133797</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0.94388222899999996</v>
       </c>
@@ -10956,7 +11094,7 @@
         <v>0.74418818491732497</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0.92196149000000005</v>
       </c>
@@ -10967,7 +11105,7 @@
         <v>0.74474165008353899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0.84037423200000005</v>
       </c>
@@ -10978,7 +11116,7 @@
         <v>0.74529244625152802</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0.83612931700000004</v>
       </c>
@@ -10989,7 +11127,7 @@
         <v>0.74584059735871699</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0.87064896300000005</v>
       </c>
@@ -11000,7 +11138,7 @@
         <v>0.74638612702436502</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0.86867932199999998</v>
       </c>
@@ -11011,7 +11149,7 @@
         <v>0.74692905855539404</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0.85752368700000003</v>
       </c>
@@ -11025,7 +11163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0.90995687199999997</v>
       </c>
@@ -11036,7 +11174,7 @@
         <v>0.74800721891363997</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0.94889122800000003</v>
       </c>
@@ -11047,7 +11185,7 @@
         <v>0.74854249284366003</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0.91423574600000002</v>
       </c>
@@ -11075,8 +11213,11 @@
       <c r="K256" s="5">
         <v>1.0863638092230099</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="6">
+        <v>0.88611161231531599</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>0.90082181500000003</v>
       </c>
@@ -11104,8 +11245,11 @@
       <c r="K257" s="5">
         <v>0.99332662805874505</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257" s="6">
+        <v>0.89477977981664203</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0.88898699400000003</v>
       </c>
@@ -11133,8 +11277,11 @@
       <c r="K258" s="5">
         <v>1.0072897119139601</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258" s="6">
+        <v>0.90117200457051305</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>0.90907392899999995</v>
       </c>
@@ -11162,8 +11309,11 @@
       <c r="K259" s="5">
         <v>1.019403556269</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259" s="6">
+        <v>0.90742915860782003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0.88326484900000002</v>
       </c>
@@ -11191,8 +11341,11 @@
       <c r="K260" s="5">
         <v>1.0324553035469</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260" s="6">
+        <v>0.90725356643763999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0.878408666</v>
       </c>
@@ -11220,8 +11373,11 @@
       <c r="K261" s="5">
         <v>1.04741979118873</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261" s="6">
+        <v>0.89420235213541699</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>0.94187862899999997</v>
       </c>
@@ -11249,8 +11405,11 @@
       <c r="K262" s="5">
         <v>1.06109530502222</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="6">
+        <v>0.88707736815751204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0.93214928500000005</v>
       </c>
@@ -11278,8 +11437,11 @@
       <c r="K263" s="5">
         <v>1.0741978177440299</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263" s="6">
+        <v>0.895242397010933</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0.90046524299999997</v>
       </c>
@@ -11307,8 +11469,11 @@
       <c r="K264" s="5">
         <v>1.0894195096604</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="6">
+        <v>0.90382614516525195</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0.90875131600000003</v>
       </c>
@@ -11336,8 +11501,11 @@
       <c r="K265" s="5">
         <v>1.1045074627199301</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="6">
+        <v>0.90211412314669004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0.87526742999999996</v>
       </c>
@@ -11365,8 +11533,11 @@
       <c r="K266" s="5">
         <v>1.1183532590042899</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="6">
+        <v>0.89805519573266201</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0.84062892700000003</v>
       </c>
@@ -11394,8 +11565,11 @@
       <c r="K267" s="5">
         <v>1.1337164054023099</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="6">
+        <v>0.90655795202857403</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0.80069277000000005</v>
       </c>
@@ -11423,8 +11597,11 @@
       <c r="K268" s="5">
         <v>1.14989028930584</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="6">
+        <v>0.88642227520206096</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0.840645906</v>
       </c>
@@ -11452,8 +11629,11 @@
       <c r="K269" s="5">
         <v>1.16480880708809</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" s="6">
+        <v>0.86027932514399796</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0.89691649399999995</v>
       </c>
@@ -11481,8 +11661,11 @@
       <c r="K270" s="5">
         <v>1.18053160701973</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270" s="6">
+        <v>0.84838296580648298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0.88774747899999995</v>
       </c>
@@ -11510,8 +11693,11 @@
       <c r="K271" s="5">
         <v>1.19752878709193</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271" s="6">
+        <v>0.84602935738705898</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>0.86098753699999997</v>
       </c>
@@ -11539,8 +11725,11 @@
       <c r="K272" s="5">
         <v>1.21355321758604</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272" s="6">
+        <v>0.84851128304688095</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0.90881923499999995</v>
       </c>
@@ -11568,8 +11757,11 @@
       <c r="K273" s="5">
         <v>1.2299042672946501</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="6">
+        <v>0.85256002969501399</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0.91413386799999996</v>
       </c>
@@ -11597,8 +11789,11 @@
       <c r="K274" s="5">
         <v>1.2476280389905801</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="6">
+        <v>0.87406329847138398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0.838183856</v>
       </c>
@@ -11626,8 +11821,11 @@
       <c r="K275" s="5">
         <v>1.2646914050065801</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275" s="6">
+        <v>0.88867795732214405</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>0.84893197899999995</v>
       </c>
@@ -11655,8 +11853,11 @@
       <c r="K276" s="5">
         <v>1.28187665184058</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276" s="6">
+        <v>0.87699771140955196</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0.85468808399999996</v>
       </c>
@@ -11684,8 +11885,11 @@
       <c r="K277" s="5">
         <v>1.3003473730525501</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277" s="6">
+        <v>0.86927841596056898</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0.86777939999999998</v>
       </c>
@@ -11713,8 +11917,11 @@
       <c r="K278" s="5">
         <v>1.3183867153504201</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278" s="6">
+        <v>0.86802563449764802</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.90944748200000003</v>
       </c>
@@ -11742,8 +11949,11 @@
       <c r="K279" s="5">
         <v>1.3365399619754901</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279" s="6">
+        <v>0.85986398228287497</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.94223520199999999</v>
       </c>
@@ -11771,8 +11981,11 @@
       <c r="K280" s="5">
         <v>1.3558190553404601</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280" s="6">
+        <v>0.85893199382151297</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0.99984718299999997</v>
       </c>
@@ -11800,8 +12013,11 @@
       <c r="K281" s="5">
         <v>1.37480882294111</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281" s="6">
+        <v>0.87962483770188105</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0.97763778999999995</v>
       </c>
@@ -11829,8 +12045,11 @@
       <c r="K282" s="5">
         <v>1.39402005942143</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282" s="6">
+        <v>0.90959252552441505</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0.97743403399999995</v>
       </c>
@@ -11858,8 +12077,11 @@
       <c r="K283" s="5">
         <v>1.41416546967239</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283" s="6">
+        <v>0.93388404780950995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -11886,6 +12108,9 @@
       </c>
       <c r="K284" s="5">
         <v>1.4341245234517701</v>
+      </c>
+      <c r="L284" s="6">
+        <v>0.95469805688758302</v>
       </c>
     </row>
   </sheetData>
@@ -11898,8 +12123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
+++ b/GeneticProgrammingPortfolio/sheets/experiment-1-data.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
